--- a/document/テストケース_结果.xlsx
+++ b/document/テストケース_结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="13650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="001_物件管理" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287">
   <si>
     <t>機能ＩＤ</t>
   </si>
@@ -795,10 +795,91 @@
     <t>返信された回答書の内容を反映されること。</t>
   </si>
   <si>
-    <t>任意保険・自賠責保険更新のプロセスを更新追加する</t>
-  </si>
-  <si>
-    <t>契約管理→契約情報一覧→随時対応→7任意保険・自賠責保険更新</t>
+    <t>変更</t>
+  </si>
+  <si>
+    <t>契約分類を選べられること。</t>
+  </si>
+  <si>
+    <t>契約手続き一覧</t>
+  </si>
+  <si>
+    <t>郵便番号を入力したら住所を自動反映されること。</t>
+  </si>
+  <si>
+    <t>駐車場一覧→空き車室→申込みフォームを送る/契約手続きに進む→申込ユーザー登録の契約者分類の個人を選ぶ、名前を入力したら次へをクリック→契約管理の契約手続き中一覧</t>
+  </si>
+  <si>
+    <t>保存できること。</t>
+  </si>
+  <si>
+    <t>空き待ちに登録する</t>
+  </si>
+  <si>
+    <t>空き待ちに登録をOKにしたら、契約手続き中一覧に反映されないこと。ホワイトボードの空き待ちリストに反映されること。</t>
+  </si>
+  <si>
+    <t>進捗情報①申込み用フォーム送付</t>
+  </si>
+  <si>
+    <t>申込確認書、申込書をダウンロードできること。</t>
+  </si>
+  <si>
+    <t>申込用フォームメールを送信できること。</t>
+  </si>
+  <si>
+    <t>申込用フォームメールを届けること。</t>
+  </si>
+  <si>
+    <t>申込み基本情報の駐車場情報画面を表示されること。</t>
+  </si>
+  <si>
+    <t>申込み基本情報入力をできること。</t>
+  </si>
+  <si>
+    <t>次：申込み完了へをクリックしたらシート備考3のように反映されること。</t>
+  </si>
+  <si>
+    <t>進捗情報②申込み情報確認</t>
+  </si>
+  <si>
+    <t>申込みフォームに入力した内容を反映されること。</t>
+  </si>
+  <si>
+    <t>進捗情報③審査用フォーム送付</t>
+  </si>
+  <si>
+    <t>審査用フォームを申込者のメールに送信できること。</t>
+  </si>
+  <si>
+    <t>審査用フォームメールを届けること。</t>
+  </si>
+  <si>
+    <t>審査用基本情報のご契約様について項目をすべて入力できること。</t>
+  </si>
+  <si>
+    <t>次：審査情報入力完了へシート備考4のように反映されること。</t>
+  </si>
+  <si>
+    <t>進捗情報④審査情報確認</t>
+  </si>
+  <si>
+    <t>基本情報、車両の主な使用者、書類・操作鍵類の送付先を変更できること。</t>
+  </si>
+  <si>
+    <t>進捗情報⑤書類審査</t>
+  </si>
+  <si>
+    <t>免許の写し、車検証の写し、自賠責保険証、任意保険証の写しをダウンロードできること。</t>
+  </si>
+  <si>
+    <t>自賠責保険の有効期限、任意保険の対物限度額、任意保険の有効期間を変更できること。</t>
+  </si>
+  <si>
+    <t>進捗情報⑥勤め先審査</t>
+  </si>
+  <si>
+    <t>審査情報に入力した勤め先の情報を反映されること。</t>
   </si>
 </sst>
 </file>
@@ -855,9 +936,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,44 +982,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,24 +1037,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,26 +1052,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,13 +1105,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,67 +1255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,85 +1273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,6 +1442,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1375,17 +1471,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,29 +1530,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1463,10 +1544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1475,137 +1556,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1636,6 +1717,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1656,7 +1739,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -2330,11 +2412,11 @@
         <v>18</v>
       </c>
       <c r="BT5" s="22"/>
-      <c r="BU5" s="42" t="s">
+      <c r="BU5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="BV5" s="44"/>
-      <c r="BW5" s="44" t="s">
+      <c r="BV5" s="45"/>
+      <c r="BW5" s="45" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5216,8 +5298,8 @@
   <sheetPr/>
   <dimension ref="B2:BW88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BY18" sqref="BY18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="BX41" sqref="BX41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="12"/>
@@ -5445,11 +5527,11 @@
         <v>18</v>
       </c>
       <c r="BT5" s="22"/>
-      <c r="BU5" s="42" t="s">
+      <c r="BU5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="BV5" s="42"/>
-      <c r="BW5" s="42" t="s">
+      <c r="BV5" s="27"/>
+      <c r="BW5" s="27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5529,7 +5611,7 @@
       <c r="BL6" s="6"/>
       <c r="BM6" s="6"/>
       <c r="BN6" s="19"/>
-      <c r="BO6" s="36" t="str">
+      <c r="BO6" s="38" t="str">
         <f>IF(R6="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R6)</f>
         <v>002-001-001</v>
       </c>
@@ -5619,7 +5701,7 @@
       <c r="BL7" s="6"/>
       <c r="BM7" s="6"/>
       <c r="BN7" s="19"/>
-      <c r="BO7" s="36" t="str">
+      <c r="BO7" s="38" t="str">
         <f t="shared" ref="BO7:BO41" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
         <v>002-001-002</v>
       </c>
@@ -5727,81 +5809,81 @@
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="27" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="27" t="s">
+      <c r="S9" s="30"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="28"/>
-      <c r="BB9" s="28"/>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="28"/>
-      <c r="BF9" s="28"/>
-      <c r="BG9" s="28"/>
-      <c r="BH9" s="28"/>
-      <c r="BI9" s="28"/>
-      <c r="BJ9" s="28"/>
-      <c r="BK9" s="28"/>
-      <c r="BL9" s="28"/>
-      <c r="BM9" s="28"/>
-      <c r="BN9" s="32"/>
-      <c r="BO9" s="37" t="str">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30"/>
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30"/>
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="34"/>
+      <c r="BO9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>002-001-004</v>
       </c>
-      <c r="BP9" s="28"/>
-      <c r="BQ9" s="28"/>
-      <c r="BR9" s="32"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="34"/>
       <c r="BS9" s="24" t="s">
         <v>24</v>
       </c>
@@ -5899,7 +5981,7 @@
       <c r="BU10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BW10" s="43" t="s">
+      <c r="BW10" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5977,7 +6059,7 @@
       <c r="BL11" s="6"/>
       <c r="BM11" s="6"/>
       <c r="BN11" s="19"/>
-      <c r="BO11" s="36" t="str">
+      <c r="BO11" s="38" t="str">
         <f t="shared" si="0"/>
         <v>002-001-006</v>
       </c>
@@ -5986,7 +6068,6 @@
       <c r="BR11" s="19"/>
       <c r="BS11" s="24"/>
       <c r="BT11" s="25"/>
-      <c r="BU11" s="1"/>
       <c r="BW11" s="18"/>
     </row>
     <row r="12" spans="2:75">
@@ -6070,7 +6151,6 @@
       <c r="BR12" s="18"/>
       <c r="BS12" s="24"/>
       <c r="BT12" s="25"/>
-      <c r="BU12" s="1"/>
       <c r="BW12" s="18"/>
     </row>
     <row r="13" spans="2:75">
@@ -6092,71 +6172,70 @@
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="34" t="s">
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="33" t="s">
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="34"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="34"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="34"/>
-      <c r="AX13" s="34"/>
-      <c r="AY13" s="34"/>
-      <c r="AZ13" s="34"/>
-      <c r="BA13" s="34"/>
-      <c r="BB13" s="34"/>
-      <c r="BC13" s="34"/>
-      <c r="BD13" s="34"/>
-      <c r="BE13" s="34"/>
-      <c r="BF13" s="34"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="34"/>
-      <c r="BI13" s="34"/>
-      <c r="BJ13" s="34"/>
-      <c r="BK13" s="34"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="34"/>
-      <c r="BN13" s="35"/>
-      <c r="BO13" s="38" t="str">
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="36"/>
+      <c r="BA13" s="36"/>
+      <c r="BB13" s="36"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="36"/>
+      <c r="BI13" s="36"/>
+      <c r="BJ13" s="36"/>
+      <c r="BK13" s="36"/>
+      <c r="BL13" s="36"/>
+      <c r="BM13" s="36"/>
+      <c r="BN13" s="37"/>
+      <c r="BO13" s="40" t="str">
         <f t="shared" si="0"/>
         <v>002-001-008</v>
       </c>
-      <c r="BP13" s="34"/>
-      <c r="BQ13" s="34"/>
-      <c r="BR13" s="35"/>
+      <c r="BP13" s="36"/>
+      <c r="BQ13" s="36"/>
+      <c r="BR13" s="37"/>
       <c r="BS13" s="24"/>
       <c r="BT13" s="25"/>
-      <c r="BU13" s="1"/>
       <c r="BW13" s="18"/>
     </row>
     <row r="14" spans="2:75">
@@ -6240,7 +6319,6 @@
       <c r="BR14" s="18"/>
       <c r="BS14" s="24"/>
       <c r="BT14" s="25"/>
-      <c r="BU14" s="1"/>
       <c r="BW14" s="18"/>
     </row>
     <row r="15" spans="2:75">
@@ -6337,71 +6415,71 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="34" t="s">
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="34" t="s">
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="34"/>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="34"/>
-      <c r="BC16" s="34"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="34"/>
-      <c r="BI16" s="34"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="34"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="34"/>
-      <c r="BN16" s="35"/>
-      <c r="BO16" s="38" t="str">
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="36"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16" s="36"/>
+      <c r="BF16" s="36"/>
+      <c r="BG16" s="36"/>
+      <c r="BH16" s="36"/>
+      <c r="BI16" s="36"/>
+      <c r="BJ16" s="36"/>
+      <c r="BK16" s="36"/>
+      <c r="BL16" s="36"/>
+      <c r="BM16" s="36"/>
+      <c r="BN16" s="37"/>
+      <c r="BO16" s="40" t="str">
         <f t="shared" si="0"/>
         <v>002-001-010</v>
       </c>
-      <c r="BP16" s="34"/>
-      <c r="BQ16" s="34"/>
-      <c r="BR16" s="35"/>
+      <c r="BP16" s="36"/>
+      <c r="BQ16" s="36"/>
+      <c r="BR16" s="37"/>
       <c r="BS16" s="24"/>
       <c r="BT16" s="25"/>
-      <c r="BW16" s="43" t="s">
+      <c r="BW16" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6488,7 +6566,7 @@
       <c r="BR17" s="18"/>
       <c r="BS17" s="24"/>
       <c r="BT17" s="25"/>
-      <c r="BW17" s="43" t="s">
+      <c r="BW17" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6573,92 +6651,92 @@
       <c r="BR18" s="18"/>
       <c r="BS18" s="24"/>
       <c r="BT18" s="25"/>
-      <c r="BW18" s="43" t="s">
+      <c r="BW18" s="44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" s="26" customFormat="1" spans="2:75">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="29" t="s">
+    <row r="19" s="28" customFormat="1" spans="2:75">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="29" t="s">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="S19" s="30"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="29" t="s">
+      <c r="S19" s="32"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
-      <c r="AU19" s="30"/>
-      <c r="AV19" s="30"/>
-      <c r="AW19" s="30"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="30"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="30"/>
-      <c r="BC19" s="30"/>
-      <c r="BD19" s="30"/>
-      <c r="BE19" s="30"/>
-      <c r="BF19" s="30"/>
-      <c r="BG19" s="30"/>
-      <c r="BH19" s="30"/>
-      <c r="BI19" s="30"/>
-      <c r="BJ19" s="30"/>
-      <c r="BK19" s="30"/>
-      <c r="BL19" s="30"/>
-      <c r="BM19" s="30"/>
-      <c r="BN19" s="31"/>
-      <c r="BO19" s="39" t="str">
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="32"/>
+      <c r="AW19" s="32"/>
+      <c r="AX19" s="32"/>
+      <c r="AY19" s="32"/>
+      <c r="AZ19" s="32"/>
+      <c r="BA19" s="32"/>
+      <c r="BB19" s="32"/>
+      <c r="BC19" s="32"/>
+      <c r="BD19" s="32"/>
+      <c r="BE19" s="32"/>
+      <c r="BF19" s="32"/>
+      <c r="BG19" s="32"/>
+      <c r="BH19" s="32"/>
+      <c r="BI19" s="32"/>
+      <c r="BJ19" s="32"/>
+      <c r="BK19" s="32"/>
+      <c r="BL19" s="32"/>
+      <c r="BM19" s="32"/>
+      <c r="BN19" s="33"/>
+      <c r="BO19" s="41" t="str">
         <f t="shared" si="0"/>
         <v>002-001-013</v>
       </c>
-      <c r="BP19" s="30"/>
-      <c r="BQ19" s="30"/>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="40"/>
-      <c r="BT19" s="41"/>
-      <c r="BW19" s="43" t="s">
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="33"/>
+      <c r="BS19" s="42"/>
+      <c r="BT19" s="43"/>
+      <c r="BW19" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6741,7 +6819,7 @@
       <c r="BR20" s="18"/>
       <c r="BS20" s="24"/>
       <c r="BT20" s="25"/>
-      <c r="BW20" s="43" t="s">
+      <c r="BW20" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6762,71 +6840,71 @@
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="33" t="s">
+      <c r="R21" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="34" t="s">
+      <c r="S21" s="36"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="33" t="s">
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="34"/>
-      <c r="AW21" s="34"/>
-      <c r="AX21" s="34"/>
-      <c r="AY21" s="34"/>
-      <c r="AZ21" s="34"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="34"/>
-      <c r="BC21" s="34"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="34"/>
-      <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="34"/>
-      <c r="BL21" s="34"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="35"/>
-      <c r="BO21" s="38" t="str">
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="36"/>
+      <c r="BM21" s="36"/>
+      <c r="BN21" s="37"/>
+      <c r="BO21" s="40" t="str">
         <f t="shared" si="0"/>
         <v>002-001-015</v>
       </c>
-      <c r="BP21" s="34"/>
-      <c r="BQ21" s="34"/>
-      <c r="BR21" s="35"/>
+      <c r="BP21" s="36"/>
+      <c r="BQ21" s="36"/>
+      <c r="BR21" s="37"/>
       <c r="BS21" s="24"/>
       <c r="BT21" s="25"/>
-      <c r="BW21" s="43" t="s">
+      <c r="BW21" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6902,7 +6980,7 @@
       <c r="BL22" s="6"/>
       <c r="BM22" s="6"/>
       <c r="BN22" s="19"/>
-      <c r="BO22" s="36" t="str">
+      <c r="BO22" s="38" t="str">
         <f t="shared" si="0"/>
         <v>002-001-016</v>
       </c>
@@ -6911,7 +6989,7 @@
       <c r="BR22" s="19"/>
       <c r="BS22" s="24"/>
       <c r="BT22" s="25"/>
-      <c r="BW22" s="43" t="s">
+      <c r="BW22" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6932,69 +7010,69 @@
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="27" t="s">
+      <c r="R23" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="S23" s="28"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="27" t="s">
+      <c r="S23" s="30"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="28"/>
-      <c r="AY23" s="28"/>
-      <c r="AZ23" s="28"/>
-      <c r="BA23" s="28"/>
-      <c r="BB23" s="28"/>
-      <c r="BC23" s="28"/>
-      <c r="BD23" s="28"/>
-      <c r="BE23" s="28"/>
-      <c r="BF23" s="28"/>
-      <c r="BG23" s="28"/>
-      <c r="BH23" s="28"/>
-      <c r="BI23" s="28"/>
-      <c r="BJ23" s="28"/>
-      <c r="BK23" s="28"/>
-      <c r="BL23" s="28"/>
-      <c r="BM23" s="28"/>
-      <c r="BN23" s="32"/>
-      <c r="BO23" s="37" t="str">
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="30"/>
+      <c r="AX23" s="30"/>
+      <c r="AY23" s="30"/>
+      <c r="AZ23" s="30"/>
+      <c r="BA23" s="30"/>
+      <c r="BB23" s="30"/>
+      <c r="BC23" s="30"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="30"/>
+      <c r="BF23" s="30"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="30"/>
+      <c r="BJ23" s="30"/>
+      <c r="BK23" s="30"/>
+      <c r="BL23" s="30"/>
+      <c r="BM23" s="30"/>
+      <c r="BN23" s="34"/>
+      <c r="BO23" s="39" t="str">
         <f t="shared" si="0"/>
         <v>002-001-017</v>
       </c>
-      <c r="BP23" s="28"/>
-      <c r="BQ23" s="28"/>
-      <c r="BR23" s="32"/>
+      <c r="BP23" s="30"/>
+      <c r="BQ23" s="30"/>
+      <c r="BR23" s="34"/>
       <c r="BS23" s="24"/>
       <c r="BT23" s="25"/>
-      <c r="BW23" s="43" t="s">
+      <c r="BW23" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7079,7 +7157,7 @@
       <c r="BR24" s="18"/>
       <c r="BS24" s="24"/>
       <c r="BT24" s="25"/>
-      <c r="BW24" s="43" t="s">
+      <c r="BW24" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7158,7 +7236,7 @@
       <c r="BR25" s="18"/>
       <c r="BS25" s="24"/>
       <c r="BT25" s="25"/>
-      <c r="BW25" s="43" t="s">
+      <c r="BW25" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7236,7 +7314,7 @@
       <c r="BL26" s="6"/>
       <c r="BM26" s="6"/>
       <c r="BN26" s="19"/>
-      <c r="BO26" s="36" t="str">
+      <c r="BO26" s="38" t="str">
         <f t="shared" si="0"/>
         <v>002-001-019</v>
       </c>
@@ -7271,68 +7349,68 @@
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
-      <c r="R27" s="33" t="s">
+      <c r="R27" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="S27" s="34"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="34" t="s">
+      <c r="S27" s="36"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="33" t="s">
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="34"/>
-      <c r="AO27" s="34"/>
-      <c r="AP27" s="34"/>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="34"/>
-      <c r="AS27" s="34"/>
-      <c r="AT27" s="34"/>
-      <c r="AU27" s="34"/>
-      <c r="AV27" s="34"/>
-      <c r="AW27" s="34"/>
-      <c r="AX27" s="34"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="34"/>
-      <c r="BA27" s="34"/>
-      <c r="BB27" s="34"/>
-      <c r="BC27" s="34"/>
-      <c r="BD27" s="34"/>
-      <c r="BE27" s="34"/>
-      <c r="BF27" s="34"/>
-      <c r="BG27" s="34"/>
-      <c r="BH27" s="34"/>
-      <c r="BI27" s="34"/>
-      <c r="BJ27" s="34"/>
-      <c r="BK27" s="34"/>
-      <c r="BL27" s="34"/>
-      <c r="BM27" s="34"/>
-      <c r="BN27" s="35"/>
-      <c r="BO27" s="38" t="str">
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="36"/>
+      <c r="AZ27" s="36"/>
+      <c r="BA27" s="36"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="36"/>
+      <c r="BD27" s="36"/>
+      <c r="BE27" s="36"/>
+      <c r="BF27" s="36"/>
+      <c r="BG27" s="36"/>
+      <c r="BH27" s="36"/>
+      <c r="BI27" s="36"/>
+      <c r="BJ27" s="36"/>
+      <c r="BK27" s="36"/>
+      <c r="BL27" s="36"/>
+      <c r="BM27" s="36"/>
+      <c r="BN27" s="37"/>
+      <c r="BO27" s="40" t="str">
         <f t="shared" si="0"/>
         <v>002-001-020</v>
       </c>
-      <c r="BP27" s="34"/>
-      <c r="BQ27" s="34"/>
-      <c r="BR27" s="35"/>
+      <c r="BP27" s="36"/>
+      <c r="BQ27" s="36"/>
+      <c r="BR27" s="37"/>
       <c r="BS27" s="24" t="s">
         <v>24</v>
       </c>
@@ -7506,7 +7584,7 @@
       <c r="BL29" s="6"/>
       <c r="BM29" s="6"/>
       <c r="BN29" s="19"/>
-      <c r="BO29" s="36" t="str">
+      <c r="BO29" s="38" t="str">
         <f t="shared" si="0"/>
         <v>002-001-022</v>
       </c>
@@ -7625,66 +7703,66 @@
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="27" t="s">
+      <c r="R31" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="S31" s="28"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="27" t="s">
+      <c r="S31" s="30"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="28"/>
-      <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="28"/>
-      <c r="AU31" s="28"/>
-      <c r="AV31" s="28"/>
-      <c r="AW31" s="28"/>
-      <c r="AX31" s="28"/>
-      <c r="AY31" s="28"/>
-      <c r="AZ31" s="28"/>
-      <c r="BA31" s="28"/>
-      <c r="BB31" s="28"/>
-      <c r="BC31" s="28"/>
-      <c r="BD31" s="28"/>
-      <c r="BE31" s="28"/>
-      <c r="BF31" s="28"/>
-      <c r="BG31" s="28"/>
-      <c r="BH31" s="28"/>
-      <c r="BI31" s="28"/>
-      <c r="BJ31" s="28"/>
-      <c r="BK31" s="28"/>
-      <c r="BL31" s="28"/>
-      <c r="BM31" s="28"/>
-      <c r="BN31" s="32"/>
-      <c r="BO31" s="37" t="str">
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="30"/>
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="30"/>
+      <c r="AS31" s="30"/>
+      <c r="AT31" s="30"/>
+      <c r="AU31" s="30"/>
+      <c r="AV31" s="30"/>
+      <c r="AW31" s="30"/>
+      <c r="AX31" s="30"/>
+      <c r="AY31" s="30"/>
+      <c r="AZ31" s="30"/>
+      <c r="BA31" s="30"/>
+      <c r="BB31" s="30"/>
+      <c r="BC31" s="30"/>
+      <c r="BD31" s="30"/>
+      <c r="BE31" s="30"/>
+      <c r="BF31" s="30"/>
+      <c r="BG31" s="30"/>
+      <c r="BH31" s="30"/>
+      <c r="BI31" s="30"/>
+      <c r="BJ31" s="30"/>
+      <c r="BK31" s="30"/>
+      <c r="BL31" s="30"/>
+      <c r="BM31" s="30"/>
+      <c r="BN31" s="34"/>
+      <c r="BO31" s="39" t="str">
         <f t="shared" si="0"/>
         <v>002-001-024</v>
       </c>
-      <c r="BP31" s="28"/>
-      <c r="BQ31" s="28"/>
-      <c r="BR31" s="32"/>
+      <c r="BP31" s="30"/>
+      <c r="BQ31" s="30"/>
+      <c r="BR31" s="34"/>
       <c r="BS31" s="24" t="s">
         <v>24</v>
       </c>
@@ -7938,7 +8016,7 @@
       <c r="BL34" s="6"/>
       <c r="BM34" s="6"/>
       <c r="BN34" s="19"/>
-      <c r="BO34" s="36" t="str">
+      <c r="BO34" s="38" t="str">
         <f t="shared" si="0"/>
         <v>002-001-026</v>
       </c>
@@ -7976,65 +8054,65 @@
       <c r="R35" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="34"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="34" t="s">
+      <c r="S35" s="36"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="33" t="s">
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="34"/>
-      <c r="AM35" s="34"/>
-      <c r="AN35" s="34"/>
-      <c r="AO35" s="34"/>
-      <c r="AP35" s="34"/>
-      <c r="AQ35" s="34"/>
-      <c r="AR35" s="34"/>
-      <c r="AS35" s="34"/>
-      <c r="AT35" s="34"/>
-      <c r="AU35" s="34"/>
-      <c r="AV35" s="34"/>
-      <c r="AW35" s="34"/>
-      <c r="AX35" s="34"/>
-      <c r="AY35" s="34"/>
-      <c r="AZ35" s="34"/>
-      <c r="BA35" s="34"/>
-      <c r="BB35" s="34"/>
-      <c r="BC35" s="34"/>
-      <c r="BD35" s="34"/>
-      <c r="BE35" s="34"/>
-      <c r="BF35" s="34"/>
-      <c r="BG35" s="34"/>
-      <c r="BH35" s="34"/>
-      <c r="BI35" s="34"/>
-      <c r="BJ35" s="34"/>
-      <c r="BK35" s="34"/>
-      <c r="BL35" s="34"/>
-      <c r="BM35" s="34"/>
-      <c r="BN35" s="35"/>
-      <c r="BO35" s="38" t="str">
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
+      <c r="AT35" s="36"/>
+      <c r="AU35" s="36"/>
+      <c r="AV35" s="36"/>
+      <c r="AW35" s="36"/>
+      <c r="AX35" s="36"/>
+      <c r="AY35" s="36"/>
+      <c r="AZ35" s="36"/>
+      <c r="BA35" s="36"/>
+      <c r="BB35" s="36"/>
+      <c r="BC35" s="36"/>
+      <c r="BD35" s="36"/>
+      <c r="BE35" s="36"/>
+      <c r="BF35" s="36"/>
+      <c r="BG35" s="36"/>
+      <c r="BH35" s="36"/>
+      <c r="BI35" s="36"/>
+      <c r="BJ35" s="36"/>
+      <c r="BK35" s="36"/>
+      <c r="BL35" s="36"/>
+      <c r="BM35" s="36"/>
+      <c r="BN35" s="37"/>
+      <c r="BO35" s="40" t="str">
         <f t="shared" si="0"/>
         <v>002-001-027</v>
       </c>
-      <c r="BP35" s="34"/>
-      <c r="BQ35" s="34"/>
-      <c r="BR35" s="35"/>
+      <c r="BP35" s="36"/>
+      <c r="BQ35" s="36"/>
+      <c r="BR35" s="37"/>
       <c r="BS35" s="24" t="s">
         <v>24</v>
       </c>
@@ -8208,7 +8286,7 @@
       <c r="BL37" s="6"/>
       <c r="BM37" s="6"/>
       <c r="BN37" s="19"/>
-      <c r="BO37" s="36" t="str">
+      <c r="BO37" s="38" t="str">
         <f t="shared" si="0"/>
         <v>002-001-029</v>
       </c>
@@ -8413,68 +8491,68 @@
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
-      <c r="R40" s="33" t="s">
+      <c r="R40" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="S40" s="34"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="34" t="s">
+      <c r="S40" s="36"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="33" t="s">
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="34"/>
-      <c r="AM40" s="34"/>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="34"/>
-      <c r="AQ40" s="34"/>
-      <c r="AR40" s="34"/>
-      <c r="AS40" s="34"/>
-      <c r="AT40" s="34"/>
-      <c r="AU40" s="34"/>
-      <c r="AV40" s="34"/>
-      <c r="AW40" s="34"/>
-      <c r="AX40" s="34"/>
-      <c r="AY40" s="34"/>
-      <c r="AZ40" s="34"/>
-      <c r="BA40" s="34"/>
-      <c r="BB40" s="34"/>
-      <c r="BC40" s="34"/>
-      <c r="BD40" s="34"/>
-      <c r="BE40" s="34"/>
-      <c r="BF40" s="34"/>
-      <c r="BG40" s="34"/>
-      <c r="BH40" s="34"/>
-      <c r="BI40" s="34"/>
-      <c r="BJ40" s="34"/>
-      <c r="BK40" s="34"/>
-      <c r="BL40" s="34"/>
-      <c r="BM40" s="34"/>
-      <c r="BN40" s="35"/>
-      <c r="BO40" s="38" t="str">
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+      <c r="AM40" s="36"/>
+      <c r="AN40" s="36"/>
+      <c r="AO40" s="36"/>
+      <c r="AP40" s="36"/>
+      <c r="AQ40" s="36"/>
+      <c r="AR40" s="36"/>
+      <c r="AS40" s="36"/>
+      <c r="AT40" s="36"/>
+      <c r="AU40" s="36"/>
+      <c r="AV40" s="36"/>
+      <c r="AW40" s="36"/>
+      <c r="AX40" s="36"/>
+      <c r="AY40" s="36"/>
+      <c r="AZ40" s="36"/>
+      <c r="BA40" s="36"/>
+      <c r="BB40" s="36"/>
+      <c r="BC40" s="36"/>
+      <c r="BD40" s="36"/>
+      <c r="BE40" s="36"/>
+      <c r="BF40" s="36"/>
+      <c r="BG40" s="36"/>
+      <c r="BH40" s="36"/>
+      <c r="BI40" s="36"/>
+      <c r="BJ40" s="36"/>
+      <c r="BK40" s="36"/>
+      <c r="BL40" s="36"/>
+      <c r="BM40" s="36"/>
+      <c r="BN40" s="37"/>
+      <c r="BO40" s="40" t="str">
         <f t="shared" si="0"/>
         <v>002-001-032</v>
       </c>
-      <c r="BP40" s="34"/>
-      <c r="BQ40" s="34"/>
-      <c r="BR40" s="35"/>
+      <c r="BP40" s="36"/>
+      <c r="BQ40" s="36"/>
+      <c r="BR40" s="37"/>
       <c r="BS40" s="24" t="s">
         <v>24</v>
       </c>
@@ -8556,7 +8634,7 @@
       <c r="BL41" s="6"/>
       <c r="BM41" s="6"/>
       <c r="BN41" s="19"/>
-      <c r="BO41" s="36" t="str">
+      <c r="BO41" s="38" t="str">
         <f t="shared" si="0"/>
         <v>002-001-033</v>
       </c>
@@ -8965,7 +9043,7 @@
       <c r="BL47" s="6"/>
       <c r="BM47" s="6"/>
       <c r="BN47" s="6"/>
-      <c r="BO47" s="36" t="str">
+      <c r="BO47" s="38" t="str">
         <f t="shared" si="1"/>
         <v>002-001-038</v>
       </c>
@@ -9000,68 +9078,68 @@
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
-      <c r="R48" s="33" t="s">
+      <c r="R48" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="S48" s="34"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="34" t="s">
+      <c r="S48" s="36"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="35"/>
-      <c r="AH48" s="34" t="s">
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="34"/>
-      <c r="AL48" s="34"/>
-      <c r="AM48" s="34"/>
-      <c r="AN48" s="34"/>
-      <c r="AO48" s="34"/>
-      <c r="AP48" s="34"/>
-      <c r="AQ48" s="34"/>
-      <c r="AR48" s="34"/>
-      <c r="AS48" s="34"/>
-      <c r="AT48" s="34"/>
-      <c r="AU48" s="34"/>
-      <c r="AV48" s="34"/>
-      <c r="AW48" s="34"/>
-      <c r="AX48" s="34"/>
-      <c r="AY48" s="34"/>
-      <c r="AZ48" s="34"/>
-      <c r="BA48" s="34"/>
-      <c r="BB48" s="34"/>
-      <c r="BC48" s="34"/>
-      <c r="BD48" s="34"/>
-      <c r="BE48" s="34"/>
-      <c r="BF48" s="34"/>
-      <c r="BG48" s="34"/>
-      <c r="BH48" s="34"/>
-      <c r="BI48" s="34"/>
-      <c r="BJ48" s="34"/>
-      <c r="BK48" s="34"/>
-      <c r="BL48" s="34"/>
-      <c r="BM48" s="34"/>
-      <c r="BN48" s="34"/>
-      <c r="BO48" s="38" t="str">
+      <c r="AI48" s="36"/>
+      <c r="AJ48" s="36"/>
+      <c r="AK48" s="36"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="36"/>
+      <c r="AN48" s="36"/>
+      <c r="AO48" s="36"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="36"/>
+      <c r="AR48" s="36"/>
+      <c r="AS48" s="36"/>
+      <c r="AT48" s="36"/>
+      <c r="AU48" s="36"/>
+      <c r="AV48" s="36"/>
+      <c r="AW48" s="36"/>
+      <c r="AX48" s="36"/>
+      <c r="AY48" s="36"/>
+      <c r="AZ48" s="36"/>
+      <c r="BA48" s="36"/>
+      <c r="BB48" s="36"/>
+      <c r="BC48" s="36"/>
+      <c r="BD48" s="36"/>
+      <c r="BE48" s="36"/>
+      <c r="BF48" s="36"/>
+      <c r="BG48" s="36"/>
+      <c r="BH48" s="36"/>
+      <c r="BI48" s="36"/>
+      <c r="BJ48" s="36"/>
+      <c r="BK48" s="36"/>
+      <c r="BL48" s="36"/>
+      <c r="BM48" s="36"/>
+      <c r="BN48" s="36"/>
+      <c r="BO48" s="40" t="str">
         <f t="shared" si="1"/>
         <v>002-001-039</v>
       </c>
-      <c r="BP48" s="34"/>
-      <c r="BQ48" s="34"/>
-      <c r="BR48" s="35"/>
+      <c r="BP48" s="36"/>
+      <c r="BQ48" s="36"/>
+      <c r="BR48" s="37"/>
       <c r="BS48" s="24" t="s">
         <v>24</v>
       </c>
@@ -9145,7 +9223,7 @@
       <c r="BL49" s="6"/>
       <c r="BM49" s="6"/>
       <c r="BN49" s="6"/>
-      <c r="BO49" s="36" t="str">
+      <c r="BO49" s="38" t="str">
         <f t="shared" si="1"/>
         <v>002-001-040</v>
       </c>
@@ -9266,66 +9344,66 @@
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
-      <c r="R51" s="27" t="s">
+      <c r="R51" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="S51" s="28"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="28"/>
-      <c r="AG51" s="32"/>
-      <c r="AH51" s="28" t="s">
+      <c r="S51" s="30"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="AI51" s="28"/>
-      <c r="AJ51" s="28"/>
-      <c r="AK51" s="28"/>
-      <c r="AL51" s="28"/>
-      <c r="AM51" s="28"/>
-      <c r="AN51" s="28"/>
-      <c r="AO51" s="28"/>
-      <c r="AP51" s="28"/>
-      <c r="AQ51" s="28"/>
-      <c r="AR51" s="28"/>
-      <c r="AS51" s="28"/>
-      <c r="AT51" s="28"/>
-      <c r="AU51" s="28"/>
-      <c r="AV51" s="28"/>
-      <c r="AW51" s="28"/>
-      <c r="AX51" s="28"/>
-      <c r="AY51" s="28"/>
-      <c r="AZ51" s="28"/>
-      <c r="BA51" s="28"/>
-      <c r="BB51" s="28"/>
-      <c r="BC51" s="28"/>
-      <c r="BD51" s="28"/>
-      <c r="BE51" s="28"/>
-      <c r="BF51" s="28"/>
-      <c r="BG51" s="28"/>
-      <c r="BH51" s="28"/>
-      <c r="BI51" s="28"/>
-      <c r="BJ51" s="28"/>
-      <c r="BK51" s="28"/>
-      <c r="BL51" s="28"/>
-      <c r="BM51" s="28"/>
-      <c r="BN51" s="28"/>
-      <c r="BO51" s="37" t="str">
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
+      <c r="AL51" s="30"/>
+      <c r="AM51" s="30"/>
+      <c r="AN51" s="30"/>
+      <c r="AO51" s="30"/>
+      <c r="AP51" s="30"/>
+      <c r="AQ51" s="30"/>
+      <c r="AR51" s="30"/>
+      <c r="AS51" s="30"/>
+      <c r="AT51" s="30"/>
+      <c r="AU51" s="30"/>
+      <c r="AV51" s="30"/>
+      <c r="AW51" s="30"/>
+      <c r="AX51" s="30"/>
+      <c r="AY51" s="30"/>
+      <c r="AZ51" s="30"/>
+      <c r="BA51" s="30"/>
+      <c r="BB51" s="30"/>
+      <c r="BC51" s="30"/>
+      <c r="BD51" s="30"/>
+      <c r="BE51" s="30"/>
+      <c r="BF51" s="30"/>
+      <c r="BG51" s="30"/>
+      <c r="BH51" s="30"/>
+      <c r="BI51" s="30"/>
+      <c r="BJ51" s="30"/>
+      <c r="BK51" s="30"/>
+      <c r="BL51" s="30"/>
+      <c r="BM51" s="30"/>
+      <c r="BN51" s="30"/>
+      <c r="BO51" s="39" t="str">
         <f t="shared" si="1"/>
         <v>002-001-042</v>
       </c>
-      <c r="BP51" s="28"/>
-      <c r="BQ51" s="28"/>
-      <c r="BR51" s="32"/>
+      <c r="BP51" s="30"/>
+      <c r="BQ51" s="30"/>
+      <c r="BR51" s="34"/>
       <c r="BS51" s="24" t="s">
         <v>24</v>
       </c>
@@ -9495,7 +9573,7 @@
       <c r="BL53" s="6"/>
       <c r="BM53" s="6"/>
       <c r="BN53" s="6"/>
-      <c r="BO53" s="36" t="str">
+      <c r="BO53" s="38" t="str">
         <f t="shared" si="1"/>
         <v>002-001-044</v>
       </c>
@@ -9872,66 +9950,66 @@
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
-      <c r="R58" s="27" t="s">
+      <c r="R58" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="S58" s="28"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
-      <c r="AE58" s="28"/>
-      <c r="AF58" s="28"/>
-      <c r="AG58" s="32"/>
-      <c r="AH58" s="28" t="s">
+      <c r="S58" s="30"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
+      <c r="AF58" s="30"/>
+      <c r="AG58" s="34"/>
+      <c r="AH58" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="AI58" s="28"/>
-      <c r="AJ58" s="28"/>
-      <c r="AK58" s="28"/>
-      <c r="AL58" s="28"/>
-      <c r="AM58" s="28"/>
-      <c r="AN58" s="28"/>
-      <c r="AO58" s="28"/>
-      <c r="AP58" s="28"/>
-      <c r="AQ58" s="28"/>
-      <c r="AR58" s="28"/>
-      <c r="AS58" s="28"/>
-      <c r="AT58" s="28"/>
-      <c r="AU58" s="28"/>
-      <c r="AV58" s="28"/>
-      <c r="AW58" s="28"/>
-      <c r="AX58" s="28"/>
-      <c r="AY58" s="28"/>
-      <c r="AZ58" s="28"/>
-      <c r="BA58" s="28"/>
-      <c r="BB58" s="28"/>
-      <c r="BC58" s="28"/>
-      <c r="BD58" s="28"/>
-      <c r="BE58" s="28"/>
-      <c r="BF58" s="28"/>
-      <c r="BG58" s="28"/>
-      <c r="BH58" s="28"/>
-      <c r="BI58" s="28"/>
-      <c r="BJ58" s="28"/>
-      <c r="BK58" s="28"/>
-      <c r="BL58" s="28"/>
-      <c r="BM58" s="28"/>
-      <c r="BN58" s="28"/>
-      <c r="BO58" s="37" t="str">
+      <c r="AI58" s="30"/>
+      <c r="AJ58" s="30"/>
+      <c r="AK58" s="30"/>
+      <c r="AL58" s="30"/>
+      <c r="AM58" s="30"/>
+      <c r="AN58" s="30"/>
+      <c r="AO58" s="30"/>
+      <c r="AP58" s="30"/>
+      <c r="AQ58" s="30"/>
+      <c r="AR58" s="30"/>
+      <c r="AS58" s="30"/>
+      <c r="AT58" s="30"/>
+      <c r="AU58" s="30"/>
+      <c r="AV58" s="30"/>
+      <c r="AW58" s="30"/>
+      <c r="AX58" s="30"/>
+      <c r="AY58" s="30"/>
+      <c r="AZ58" s="30"/>
+      <c r="BA58" s="30"/>
+      <c r="BB58" s="30"/>
+      <c r="BC58" s="30"/>
+      <c r="BD58" s="30"/>
+      <c r="BE58" s="30"/>
+      <c r="BF58" s="30"/>
+      <c r="BG58" s="30"/>
+      <c r="BH58" s="30"/>
+      <c r="BI58" s="30"/>
+      <c r="BJ58" s="30"/>
+      <c r="BK58" s="30"/>
+      <c r="BL58" s="30"/>
+      <c r="BM58" s="30"/>
+      <c r="BN58" s="30"/>
+      <c r="BO58" s="39" t="str">
         <f t="shared" si="2"/>
         <v>002-001-049</v>
       </c>
-      <c r="BP58" s="28"/>
-      <c r="BQ58" s="28"/>
-      <c r="BR58" s="32"/>
+      <c r="BP58" s="30"/>
+      <c r="BQ58" s="30"/>
+      <c r="BR58" s="34"/>
       <c r="BS58" s="24" t="s">
         <v>24</v>
       </c>
@@ -9945,81 +10023,81 @@
       <c r="B59" s="16"/>
       <c r="C59" s="17"/>
       <c r="D59" s="18"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="27" t="s">
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="S59" s="28"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="28" t="s">
+      <c r="S59" s="30"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
-      <c r="AG59" s="32"/>
-      <c r="AH59" s="28" t="s">
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="30"/>
+      <c r="AE59" s="30"/>
+      <c r="AF59" s="30"/>
+      <c r="AG59" s="34"/>
+      <c r="AH59" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="AI59" s="28"/>
-      <c r="AJ59" s="28"/>
-      <c r="AK59" s="28"/>
-      <c r="AL59" s="28"/>
-      <c r="AM59" s="28"/>
-      <c r="AN59" s="28"/>
-      <c r="AO59" s="28"/>
-      <c r="AP59" s="28"/>
-      <c r="AQ59" s="28"/>
-      <c r="AR59" s="28"/>
-      <c r="AS59" s="28"/>
-      <c r="AT59" s="28"/>
-      <c r="AU59" s="28"/>
-      <c r="AV59" s="28"/>
-      <c r="AW59" s="28"/>
-      <c r="AX59" s="28"/>
-      <c r="AY59" s="28"/>
-      <c r="AZ59" s="28"/>
-      <c r="BA59" s="28"/>
-      <c r="BB59" s="28"/>
-      <c r="BC59" s="28"/>
-      <c r="BD59" s="28"/>
-      <c r="BE59" s="28"/>
-      <c r="BF59" s="28"/>
-      <c r="BG59" s="28"/>
-      <c r="BH59" s="28"/>
-      <c r="BI59" s="28"/>
-      <c r="BJ59" s="28"/>
-      <c r="BK59" s="28"/>
-      <c r="BL59" s="28"/>
-      <c r="BM59" s="28"/>
-      <c r="BN59" s="28"/>
-      <c r="BO59" s="37" t="str">
+      <c r="AI59" s="30"/>
+      <c r="AJ59" s="30"/>
+      <c r="AK59" s="30"/>
+      <c r="AL59" s="30"/>
+      <c r="AM59" s="30"/>
+      <c r="AN59" s="30"/>
+      <c r="AO59" s="30"/>
+      <c r="AP59" s="30"/>
+      <c r="AQ59" s="30"/>
+      <c r="AR59" s="30"/>
+      <c r="AS59" s="30"/>
+      <c r="AT59" s="30"/>
+      <c r="AU59" s="30"/>
+      <c r="AV59" s="30"/>
+      <c r="AW59" s="30"/>
+      <c r="AX59" s="30"/>
+      <c r="AY59" s="30"/>
+      <c r="AZ59" s="30"/>
+      <c r="BA59" s="30"/>
+      <c r="BB59" s="30"/>
+      <c r="BC59" s="30"/>
+      <c r="BD59" s="30"/>
+      <c r="BE59" s="30"/>
+      <c r="BF59" s="30"/>
+      <c r="BG59" s="30"/>
+      <c r="BH59" s="30"/>
+      <c r="BI59" s="30"/>
+      <c r="BJ59" s="30"/>
+      <c r="BK59" s="30"/>
+      <c r="BL59" s="30"/>
+      <c r="BM59" s="30"/>
+      <c r="BN59" s="30"/>
+      <c r="BO59" s="39" t="str">
         <f t="shared" si="2"/>
         <v>002-001-050</v>
       </c>
-      <c r="BP59" s="28"/>
-      <c r="BQ59" s="28"/>
-      <c r="BR59" s="32"/>
+      <c r="BP59" s="30"/>
+      <c r="BQ59" s="30"/>
+      <c r="BR59" s="34"/>
       <c r="BS59" s="24" t="s">
         <v>24</v>
       </c>
@@ -10097,7 +10175,7 @@
       <c r="BL60" s="6"/>
       <c r="BM60" s="6"/>
       <c r="BN60" s="6"/>
-      <c r="BO60" s="36"/>
+      <c r="BO60" s="38"/>
       <c r="BP60" s="6"/>
       <c r="BQ60" s="6"/>
       <c r="BR60" s="19"/>
@@ -10186,8 +10264,13 @@
       <c r="BP61" s="17"/>
       <c r="BQ61" s="17"/>
       <c r="BR61" s="18"/>
-      <c r="BS61" s="16"/>
-      <c r="BT61" s="18"/>
+      <c r="BS61" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT61" s="25"/>
+      <c r="BU61" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW61" s="18"/>
     </row>
     <row r="62" spans="2:75">
@@ -10209,70 +10292,75 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
-      <c r="R62" s="33" t="s">
+      <c r="R62" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="S62" s="34"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="34" t="s">
+      <c r="S62" s="36"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="34"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="34"/>
-      <c r="AF62" s="34"/>
-      <c r="AG62" s="35"/>
-      <c r="AH62" s="34" t="s">
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="36"/>
+      <c r="AB62" s="36"/>
+      <c r="AC62" s="36"/>
+      <c r="AD62" s="36"/>
+      <c r="AE62" s="36"/>
+      <c r="AF62" s="36"/>
+      <c r="AG62" s="37"/>
+      <c r="AH62" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="AI62" s="34"/>
-      <c r="AJ62" s="34"/>
-      <c r="AK62" s="34"/>
-      <c r="AL62" s="34"/>
-      <c r="AM62" s="34"/>
-      <c r="AN62" s="34"/>
-      <c r="AO62" s="34"/>
-      <c r="AP62" s="34"/>
-      <c r="AQ62" s="34"/>
-      <c r="AR62" s="34"/>
-      <c r="AS62" s="34"/>
-      <c r="AT62" s="34"/>
-      <c r="AU62" s="34"/>
-      <c r="AV62" s="34"/>
-      <c r="AW62" s="34"/>
-      <c r="AX62" s="34"/>
-      <c r="AY62" s="34"/>
-      <c r="AZ62" s="34"/>
-      <c r="BA62" s="34"/>
-      <c r="BB62" s="34"/>
-      <c r="BC62" s="34"/>
-      <c r="BD62" s="34"/>
-      <c r="BE62" s="34"/>
-      <c r="BF62" s="34"/>
-      <c r="BG62" s="34"/>
-      <c r="BH62" s="34"/>
-      <c r="BI62" s="34"/>
-      <c r="BJ62" s="34"/>
-      <c r="BK62" s="34"/>
-      <c r="BL62" s="34"/>
-      <c r="BM62" s="34"/>
-      <c r="BN62" s="34"/>
-      <c r="BO62" s="38" t="str">
+      <c r="AI62" s="36"/>
+      <c r="AJ62" s="36"/>
+      <c r="AK62" s="36"/>
+      <c r="AL62" s="36"/>
+      <c r="AM62" s="36"/>
+      <c r="AN62" s="36"/>
+      <c r="AO62" s="36"/>
+      <c r="AP62" s="36"/>
+      <c r="AQ62" s="36"/>
+      <c r="AR62" s="36"/>
+      <c r="AS62" s="36"/>
+      <c r="AT62" s="36"/>
+      <c r="AU62" s="36"/>
+      <c r="AV62" s="36"/>
+      <c r="AW62" s="36"/>
+      <c r="AX62" s="36"/>
+      <c r="AY62" s="36"/>
+      <c r="AZ62" s="36"/>
+      <c r="BA62" s="36"/>
+      <c r="BB62" s="36"/>
+      <c r="BC62" s="36"/>
+      <c r="BD62" s="36"/>
+      <c r="BE62" s="36"/>
+      <c r="BF62" s="36"/>
+      <c r="BG62" s="36"/>
+      <c r="BH62" s="36"/>
+      <c r="BI62" s="36"/>
+      <c r="BJ62" s="36"/>
+      <c r="BK62" s="36"/>
+      <c r="BL62" s="36"/>
+      <c r="BM62" s="36"/>
+      <c r="BN62" s="36"/>
+      <c r="BO62" s="40" t="str">
         <f t="shared" si="2"/>
         <v>002-001-052</v>
       </c>
-      <c r="BP62" s="34"/>
-      <c r="BQ62" s="34"/>
-      <c r="BR62" s="35"/>
-      <c r="BS62" s="16"/>
-      <c r="BT62" s="18"/>
+      <c r="BP62" s="36"/>
+      <c r="BQ62" s="36"/>
+      <c r="BR62" s="37"/>
+      <c r="BS62" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT62" s="25"/>
+      <c r="BU62" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW62" s="18"/>
     </row>
     <row r="63" spans="2:75">
@@ -10349,15 +10437,20 @@
       <c r="BL63" s="6"/>
       <c r="BM63" s="6"/>
       <c r="BN63" s="6"/>
-      <c r="BO63" s="36" t="str">
+      <c r="BO63" s="38" t="str">
         <f t="shared" si="2"/>
         <v>002-001-053</v>
       </c>
       <c r="BP63" s="6"/>
       <c r="BQ63" s="6"/>
       <c r="BR63" s="19"/>
-      <c r="BS63" s="16"/>
-      <c r="BT63" s="18"/>
+      <c r="BS63" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT63" s="25"/>
+      <c r="BU63" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW63" s="18"/>
     </row>
     <row r="64" spans="2:75">
@@ -10437,8 +10530,13 @@
       <c r="BP64" s="17"/>
       <c r="BQ64" s="17"/>
       <c r="BR64" s="18"/>
-      <c r="BS64" s="16"/>
-      <c r="BT64" s="18"/>
+      <c r="BS64" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT64" s="25"/>
+      <c r="BU64" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW64" s="18"/>
     </row>
     <row r="65" spans="2:75">
@@ -10518,8 +10616,13 @@
       <c r="BP65" s="17"/>
       <c r="BQ65" s="17"/>
       <c r="BR65" s="18"/>
-      <c r="BS65" s="16"/>
-      <c r="BT65" s="18"/>
+      <c r="BS65" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT65" s="25"/>
+      <c r="BU65" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW65" s="18"/>
     </row>
     <row r="66" spans="2:75">
@@ -10599,8 +10702,13 @@
       <c r="BP66" s="17"/>
       <c r="BQ66" s="17"/>
       <c r="BR66" s="18"/>
-      <c r="BS66" s="16"/>
-      <c r="BT66" s="18"/>
+      <c r="BS66" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT66" s="25"/>
+      <c r="BU66" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW66" s="18"/>
     </row>
     <row r="67" spans="2:75">
@@ -10680,8 +10788,13 @@
       <c r="BP67" s="17"/>
       <c r="BQ67" s="17"/>
       <c r="BR67" s="18"/>
-      <c r="BS67" s="16"/>
-      <c r="BT67" s="18"/>
+      <c r="BS67" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT67" s="25"/>
+      <c r="BU67" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW67" s="18"/>
     </row>
     <row r="68" spans="2:75">
@@ -10701,68 +10814,73 @@
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
-      <c r="R68" s="27" t="s">
+      <c r="R68" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="S68" s="28"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="28"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="28"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="28"/>
-      <c r="AE68" s="28"/>
-      <c r="AF68" s="28"/>
-      <c r="AG68" s="32"/>
-      <c r="AH68" s="28" t="s">
+      <c r="S68" s="30"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30"/>
+      <c r="AD68" s="30"/>
+      <c r="AE68" s="30"/>
+      <c r="AF68" s="30"/>
+      <c r="AG68" s="34"/>
+      <c r="AH68" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="AI68" s="28"/>
-      <c r="AJ68" s="28"/>
-      <c r="AK68" s="28"/>
-      <c r="AL68" s="28"/>
-      <c r="AM68" s="28"/>
-      <c r="AN68" s="28"/>
-      <c r="AO68" s="28"/>
-      <c r="AP68" s="28"/>
-      <c r="AQ68" s="28"/>
-      <c r="AR68" s="28"/>
-      <c r="AS68" s="28"/>
-      <c r="AT68" s="28"/>
-      <c r="AU68" s="28"/>
-      <c r="AV68" s="28"/>
-      <c r="AW68" s="28"/>
-      <c r="AX68" s="28"/>
-      <c r="AY68" s="28"/>
-      <c r="AZ68" s="28"/>
-      <c r="BA68" s="28"/>
-      <c r="BB68" s="28"/>
-      <c r="BC68" s="28"/>
-      <c r="BD68" s="28"/>
-      <c r="BE68" s="28"/>
-      <c r="BF68" s="28"/>
-      <c r="BG68" s="28"/>
-      <c r="BH68" s="28"/>
-      <c r="BI68" s="28"/>
-      <c r="BJ68" s="28"/>
-      <c r="BK68" s="28"/>
-      <c r="BL68" s="28"/>
-      <c r="BM68" s="28"/>
-      <c r="BN68" s="28"/>
-      <c r="BO68" s="37" t="str">
+      <c r="AI68" s="30"/>
+      <c r="AJ68" s="30"/>
+      <c r="AK68" s="30"/>
+      <c r="AL68" s="30"/>
+      <c r="AM68" s="30"/>
+      <c r="AN68" s="30"/>
+      <c r="AO68" s="30"/>
+      <c r="AP68" s="30"/>
+      <c r="AQ68" s="30"/>
+      <c r="AR68" s="30"/>
+      <c r="AS68" s="30"/>
+      <c r="AT68" s="30"/>
+      <c r="AU68" s="30"/>
+      <c r="AV68" s="30"/>
+      <c r="AW68" s="30"/>
+      <c r="AX68" s="30"/>
+      <c r="AY68" s="30"/>
+      <c r="AZ68" s="30"/>
+      <c r="BA68" s="30"/>
+      <c r="BB68" s="30"/>
+      <c r="BC68" s="30"/>
+      <c r="BD68" s="30"/>
+      <c r="BE68" s="30"/>
+      <c r="BF68" s="30"/>
+      <c r="BG68" s="30"/>
+      <c r="BH68" s="30"/>
+      <c r="BI68" s="30"/>
+      <c r="BJ68" s="30"/>
+      <c r="BK68" s="30"/>
+      <c r="BL68" s="30"/>
+      <c r="BM68" s="30"/>
+      <c r="BN68" s="30"/>
+      <c r="BO68" s="39" t="str">
         <f t="shared" si="2"/>
         <v>002-001-058</v>
       </c>
-      <c r="BP68" s="28"/>
-      <c r="BQ68" s="28"/>
-      <c r="BR68" s="32"/>
-      <c r="BS68" s="16"/>
-      <c r="BT68" s="18"/>
+      <c r="BP68" s="30"/>
+      <c r="BQ68" s="30"/>
+      <c r="BR68" s="34"/>
+      <c r="BS68" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT68" s="25"/>
+      <c r="BU68" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW68" s="18"/>
     </row>
     <row r="69" spans="2:75">
@@ -10837,15 +10955,20 @@
       <c r="BL69" s="6"/>
       <c r="BM69" s="6"/>
       <c r="BN69" s="6"/>
-      <c r="BO69" s="36" t="str">
+      <c r="BO69" s="38" t="str">
         <f t="shared" si="2"/>
         <v>002-001-059</v>
       </c>
       <c r="BP69" s="6"/>
       <c r="BQ69" s="6"/>
       <c r="BR69" s="19"/>
-      <c r="BS69" s="16"/>
-      <c r="BT69" s="18"/>
+      <c r="BS69" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT69" s="25"/>
+      <c r="BU69" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW69" s="18"/>
     </row>
     <row r="70" spans="2:75">
@@ -10925,8 +11048,13 @@
       <c r="BP70" s="17"/>
       <c r="BQ70" s="17"/>
       <c r="BR70" s="18"/>
-      <c r="BS70" s="16"/>
-      <c r="BT70" s="18"/>
+      <c r="BS70" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT70" s="25"/>
+      <c r="BU70" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW70" s="18"/>
     </row>
     <row r="71" spans="2:75">
@@ -11006,8 +11134,13 @@
       <c r="BP71" s="17"/>
       <c r="BQ71" s="17"/>
       <c r="BR71" s="18"/>
-      <c r="BS71" s="16"/>
-      <c r="BT71" s="18"/>
+      <c r="BS71" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT71" s="25"/>
+      <c r="BU71" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW71" s="18"/>
     </row>
     <row r="72" spans="2:75">
@@ -11087,8 +11220,13 @@
       <c r="BP72" s="17"/>
       <c r="BQ72" s="17"/>
       <c r="BR72" s="18"/>
-      <c r="BS72" s="16"/>
-      <c r="BT72" s="18"/>
+      <c r="BS72" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT72" s="25"/>
+      <c r="BU72" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW72" s="18"/>
     </row>
     <row r="73" spans="2:75">
@@ -11168,89 +11306,99 @@
       <c r="BP73" s="17"/>
       <c r="BQ73" s="17"/>
       <c r="BR73" s="18"/>
-      <c r="BS73" s="16"/>
-      <c r="BT73" s="18"/>
+      <c r="BS73" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT73" s="25"/>
+      <c r="BU73" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW73" s="18"/>
     </row>
     <row r="74" spans="2:75">
       <c r="B74" s="16"/>
       <c r="C74" s="17"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="27" t="s">
+      <c r="E74" s="29"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="S74" s="28"/>
-      <c r="T74" s="32"/>
-      <c r="U74" s="27"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
-      <c r="AE74" s="28"/>
-      <c r="AF74" s="28"/>
-      <c r="AG74" s="32"/>
-      <c r="AH74" s="28" t="s">
+      <c r="S74" s="30"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="30"/>
+      <c r="AD74" s="30"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="30"/>
+      <c r="AG74" s="34"/>
+      <c r="AH74" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="AI74" s="28"/>
-      <c r="AJ74" s="28"/>
-      <c r="AK74" s="28"/>
-      <c r="AL74" s="28"/>
-      <c r="AM74" s="28"/>
-      <c r="AN74" s="28"/>
-      <c r="AO74" s="28"/>
-      <c r="AP74" s="28"/>
-      <c r="AQ74" s="28"/>
-      <c r="AR74" s="28"/>
-      <c r="AS74" s="28"/>
-      <c r="AT74" s="28"/>
-      <c r="AU74" s="28"/>
-      <c r="AV74" s="28"/>
-      <c r="AW74" s="28"/>
-      <c r="AX74" s="28"/>
-      <c r="AY74" s="28"/>
-      <c r="AZ74" s="28"/>
-      <c r="BA74" s="28"/>
-      <c r="BB74" s="28"/>
-      <c r="BC74" s="28"/>
-      <c r="BD74" s="28"/>
-      <c r="BE74" s="28"/>
-      <c r="BF74" s="28"/>
-      <c r="BG74" s="28"/>
-      <c r="BH74" s="28"/>
-      <c r="BI74" s="28"/>
-      <c r="BJ74" s="28"/>
-      <c r="BK74" s="28"/>
-      <c r="BL74" s="28"/>
-      <c r="BM74" s="28"/>
-      <c r="BN74" s="28"/>
-      <c r="BO74" s="37" t="str">
+      <c r="AI74" s="30"/>
+      <c r="AJ74" s="30"/>
+      <c r="AK74" s="30"/>
+      <c r="AL74" s="30"/>
+      <c r="AM74" s="30"/>
+      <c r="AN74" s="30"/>
+      <c r="AO74" s="30"/>
+      <c r="AP74" s="30"/>
+      <c r="AQ74" s="30"/>
+      <c r="AR74" s="30"/>
+      <c r="AS74" s="30"/>
+      <c r="AT74" s="30"/>
+      <c r="AU74" s="30"/>
+      <c r="AV74" s="30"/>
+      <c r="AW74" s="30"/>
+      <c r="AX74" s="30"/>
+      <c r="AY74" s="30"/>
+      <c r="AZ74" s="30"/>
+      <c r="BA74" s="30"/>
+      <c r="BB74" s="30"/>
+      <c r="BC74" s="30"/>
+      <c r="BD74" s="30"/>
+      <c r="BE74" s="30"/>
+      <c r="BF74" s="30"/>
+      <c r="BG74" s="30"/>
+      <c r="BH74" s="30"/>
+      <c r="BI74" s="30"/>
+      <c r="BJ74" s="30"/>
+      <c r="BK74" s="30"/>
+      <c r="BL74" s="30"/>
+      <c r="BM74" s="30"/>
+      <c r="BN74" s="30"/>
+      <c r="BO74" s="39" t="str">
         <f t="shared" si="2"/>
         <v>002-001-064</v>
       </c>
-      <c r="BP74" s="28"/>
-      <c r="BQ74" s="28"/>
-      <c r="BR74" s="32"/>
-      <c r="BS74" s="16"/>
-      <c r="BT74" s="18"/>
+      <c r="BP74" s="30"/>
+      <c r="BQ74" s="30"/>
+      <c r="BR74" s="34"/>
+      <c r="BS74" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT74" s="25"/>
+      <c r="BU74" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BW74" s="18"/>
     </row>
     <row r="75" spans="2:75">
@@ -11482,15 +11630,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:BT42"/>
+  <dimension ref="B2:BW63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AH34" sqref="AH34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="BZ52" sqref="BZ52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.63333333333333" style="1"/>
+    <col min="1" max="72" width="2.63333333333333" style="1"/>
+    <col min="73" max="73" width="6.25" style="1" customWidth="1"/>
+    <col min="74" max="74" width="2.63333333333333" style="1"/>
+    <col min="75" max="75" width="4.625" style="1" customWidth="1"/>
+    <col min="76" max="16384" width="2.63333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:51">
@@ -11621,7 +11773,7 @@
       <c r="AX3" s="11"/>
       <c r="AY3" s="20"/>
     </row>
-    <row r="5" spans="2:72">
+    <row r="5" spans="2:75">
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
@@ -11707,8 +11859,15 @@
         <v>18</v>
       </c>
       <c r="BT5" s="22"/>
-    </row>
-    <row r="6" spans="2:72">
+      <c r="BU5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV5" s="27"/>
+      <c r="BW5" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:73">
       <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
@@ -11755,10 +11914,15 @@
       <c r="BP6" s="6"/>
       <c r="BQ6" s="6"/>
       <c r="BR6" s="19"/>
-      <c r="BS6" s="24"/>
+      <c r="BS6" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT6" s="25"/>
-    </row>
-    <row r="7" spans="2:72">
+      <c r="BU6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:73">
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -11797,16 +11961,21 @@
       <c r="BM7" s="17"/>
       <c r="BN7" s="18"/>
       <c r="BO7" s="23" t="str">
-        <f t="shared" ref="BO7:BO41" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
+        <f>IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
         <v>003-001-002</v>
       </c>
       <c r="BP7" s="17"/>
       <c r="BQ7" s="17"/>
       <c r="BR7" s="18"/>
-      <c r="BS7" s="24"/>
+      <c r="BS7" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT7" s="25"/>
-    </row>
-    <row r="8" spans="2:72">
+      <c r="BU7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:73">
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
@@ -11855,16 +12024,21 @@
       <c r="BM8" s="17"/>
       <c r="BN8" s="18"/>
       <c r="BO8" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R8="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R8)</f>
         <v>003-001-003</v>
       </c>
       <c r="BP8" s="17"/>
       <c r="BQ8" s="17"/>
       <c r="BR8" s="18"/>
-      <c r="BS8" s="24"/>
+      <c r="BS8" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT8" s="25"/>
-    </row>
-    <row r="9" spans="2:72">
+      <c r="BU8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:73">
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
@@ -11938,16 +12112,21 @@
       <c r="BM9" s="17"/>
       <c r="BN9" s="18"/>
       <c r="BO9" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R9="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R9)</f>
         <v>003-001-004</v>
       </c>
       <c r="BP9" s="17"/>
       <c r="BQ9" s="17"/>
       <c r="BR9" s="18"/>
-      <c r="BS9" s="24"/>
+      <c r="BS9" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT9" s="25"/>
-    </row>
-    <row r="10" spans="2:72">
+      <c r="BU9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:73">
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -12020,16 +12199,21 @@
       <c r="BM10" s="17"/>
       <c r="BN10" s="18"/>
       <c r="BO10" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R10="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R10)</f>
         <v>003-001-005</v>
       </c>
       <c r="BP10" s="17"/>
       <c r="BQ10" s="17"/>
       <c r="BR10" s="18"/>
-      <c r="BS10" s="24"/>
+      <c r="BS10" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT10" s="25"/>
-    </row>
-    <row r="11" spans="2:72">
+      <c r="BU10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:73">
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
@@ -12090,16 +12274,21 @@
       <c r="BM11" s="17"/>
       <c r="BN11" s="18"/>
       <c r="BO11" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R11="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R11)</f>
         <v>003-001-006</v>
       </c>
       <c r="BP11" s="17"/>
       <c r="BQ11" s="17"/>
       <c r="BR11" s="18"/>
-      <c r="BS11" s="24"/>
+      <c r="BS11" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT11" s="25"/>
-    </row>
-    <row r="12" spans="2:72">
+      <c r="BU11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:73">
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
@@ -12172,16 +12361,21 @@
       <c r="BM12" s="17"/>
       <c r="BN12" s="18"/>
       <c r="BO12" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R12="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R12)</f>
         <v>003-001-007</v>
       </c>
       <c r="BP12" s="17"/>
       <c r="BQ12" s="17"/>
       <c r="BR12" s="18"/>
-      <c r="BS12" s="24"/>
+      <c r="BS12" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT12" s="25"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:72">
+      <c r="BU12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:73">
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
@@ -12254,16 +12448,21 @@
       <c r="BM13" s="17"/>
       <c r="BN13" s="18"/>
       <c r="BO13" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R13="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R13)</f>
         <v>003-001-008</v>
       </c>
       <c r="BP13" s="17"/>
       <c r="BQ13" s="17"/>
       <c r="BR13" s="18"/>
-      <c r="BS13" s="24"/>
+      <c r="BS13" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT13" s="25"/>
-    </row>
-    <row r="14" spans="2:72">
+      <c r="BU13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:73">
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
@@ -12336,16 +12535,21 @@
       <c r="BM14" s="17"/>
       <c r="BN14" s="18"/>
       <c r="BO14" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R14="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R14)</f>
         <v>003-001-009</v>
       </c>
       <c r="BP14" s="17"/>
       <c r="BQ14" s="17"/>
       <c r="BR14" s="18"/>
-      <c r="BS14" s="24"/>
+      <c r="BS14" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT14" s="25"/>
-    </row>
-    <row r="15" spans="2:72">
+      <c r="BU14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:73">
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
@@ -12405,16 +12609,21 @@
       <c r="BM15" s="17"/>
       <c r="BN15" s="18"/>
       <c r="BO15" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R15="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R15)</f>
         <v>003-001-010</v>
       </c>
       <c r="BP15" s="17"/>
       <c r="BQ15" s="17"/>
       <c r="BR15" s="18"/>
-      <c r="BS15" s="24"/>
+      <c r="BS15" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT15" s="25"/>
-    </row>
-    <row r="16" spans="2:72">
+      <c r="BU15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:73">
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
@@ -12476,16 +12685,21 @@
       <c r="BM16" s="17"/>
       <c r="BN16" s="18"/>
       <c r="BO16" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R16="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R16)</f>
         <v>003-001-011</v>
       </c>
       <c r="BP16" s="17"/>
       <c r="BQ16" s="17"/>
       <c r="BR16" s="18"/>
-      <c r="BS16" s="24"/>
+      <c r="BS16" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT16" s="25"/>
-    </row>
-    <row r="17" spans="2:72">
+      <c r="BU16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:73">
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
@@ -12546,16 +12760,21 @@
       <c r="BM17" s="17"/>
       <c r="BN17" s="18"/>
       <c r="BO17" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R17="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R17)</f>
         <v>003-001-012</v>
       </c>
       <c r="BP17" s="17"/>
       <c r="BQ17" s="17"/>
       <c r="BR17" s="18"/>
-      <c r="BS17" s="24"/>
+      <c r="BS17" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT17" s="25"/>
-    </row>
-    <row r="18" spans="2:72">
+      <c r="BU17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:73">
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
@@ -12628,16 +12847,21 @@
       <c r="BM18" s="17"/>
       <c r="BN18" s="18"/>
       <c r="BO18" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R18="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R18)</f>
         <v>003-001-013</v>
       </c>
       <c r="BP18" s="17"/>
       <c r="BQ18" s="17"/>
       <c r="BR18" s="18"/>
-      <c r="BS18" s="24"/>
+      <c r="BS18" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT18" s="25"/>
-    </row>
-    <row r="19" spans="2:72">
+      <c r="BU18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:73">
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
@@ -12712,16 +12936,21 @@
       <c r="BM19" s="17"/>
       <c r="BN19" s="18"/>
       <c r="BO19" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R19="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R19)</f>
         <v>003-001-014</v>
       </c>
       <c r="BP19" s="17"/>
       <c r="BQ19" s="17"/>
       <c r="BR19" s="18"/>
-      <c r="BS19" s="24"/>
+      <c r="BS19" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT19" s="25"/>
-    </row>
-    <row r="20" spans="2:72">
+      <c r="BU19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:73">
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
@@ -12794,16 +13023,21 @@
       <c r="BM20" s="17"/>
       <c r="BN20" s="18"/>
       <c r="BO20" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R20="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R20)</f>
         <v>003-001-015</v>
       </c>
       <c r="BP20" s="17"/>
       <c r="BQ20" s="17"/>
       <c r="BR20" s="18"/>
-      <c r="BS20" s="24"/>
+      <c r="BS20" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT20" s="25"/>
-    </row>
-    <row r="21" spans="2:72">
+      <c r="BU20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:73">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -12874,16 +13108,21 @@
       <c r="BM21" s="17"/>
       <c r="BN21" s="18"/>
       <c r="BO21" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R21="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R21)</f>
         <v>003-001-016</v>
       </c>
       <c r="BP21" s="17"/>
       <c r="BQ21" s="17"/>
       <c r="BR21" s="18"/>
-      <c r="BS21" s="24"/>
+      <c r="BS21" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT21" s="25"/>
-    </row>
-    <row r="22" spans="2:72">
+      <c r="BU21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:73">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
@@ -12954,16 +13193,21 @@
       <c r="BM22" s="17"/>
       <c r="BN22" s="18"/>
       <c r="BO22" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R22="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R22)</f>
         <v>003-001-017</v>
       </c>
       <c r="BP22" s="17"/>
       <c r="BQ22" s="17"/>
       <c r="BR22" s="18"/>
-      <c r="BS22" s="24"/>
+      <c r="BS22" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT22" s="25"/>
-    </row>
-    <row r="23" spans="2:72">
+      <c r="BU22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:73">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
@@ -13034,16 +13278,21 @@
       <c r="BM23" s="17"/>
       <c r="BN23" s="18"/>
       <c r="BO23" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R23="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R23)</f>
         <v>003-001-018</v>
       </c>
       <c r="BP23" s="17"/>
       <c r="BQ23" s="17"/>
       <c r="BR23" s="18"/>
-      <c r="BS23" s="24"/>
+      <c r="BS23" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT23" s="25"/>
-    </row>
-    <row r="24" spans="2:72">
+      <c r="BU23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:73">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
@@ -13118,16 +13367,21 @@
       <c r="BM24" s="17"/>
       <c r="BN24" s="18"/>
       <c r="BO24" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R24="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R24)</f>
         <v>003-001-019</v>
       </c>
       <c r="BP24" s="17"/>
       <c r="BQ24" s="17"/>
       <c r="BR24" s="18"/>
-      <c r="BS24" s="24"/>
+      <c r="BS24" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT24" s="25"/>
-    </row>
-    <row r="25" spans="2:72">
+      <c r="BU24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:73">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
@@ -13202,16 +13456,21 @@
       <c r="BM25" s="17"/>
       <c r="BN25" s="18"/>
       <c r="BO25" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R25="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R25)</f>
         <v>003-001-020</v>
       </c>
       <c r="BP25" s="17"/>
       <c r="BQ25" s="17"/>
       <c r="BR25" s="18"/>
-      <c r="BS25" s="24"/>
+      <c r="BS25" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT25" s="25"/>
-    </row>
-    <row r="26" spans="2:72">
+      <c r="BU25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:73">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
@@ -13286,16 +13545,21 @@
       <c r="BM26" s="17"/>
       <c r="BN26" s="18"/>
       <c r="BO26" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R26="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R26)</f>
         <v>003-001-021</v>
       </c>
       <c r="BP26" s="17"/>
       <c r="BQ26" s="17"/>
       <c r="BR26" s="18"/>
-      <c r="BS26" s="24"/>
+      <c r="BS26" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT26" s="25"/>
-    </row>
-    <row r="27" spans="2:72">
+      <c r="BU26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:73">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
@@ -13370,16 +13634,21 @@
       <c r="BM27" s="17"/>
       <c r="BN27" s="18"/>
       <c r="BO27" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R27="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R27)</f>
         <v>003-001-022</v>
       </c>
       <c r="BP27" s="17"/>
       <c r="BQ27" s="17"/>
       <c r="BR27" s="18"/>
-      <c r="BS27" s="24"/>
+      <c r="BS27" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT27" s="25"/>
-    </row>
-    <row r="28" spans="2:72">
+      <c r="BU27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:73">
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
@@ -13450,16 +13719,21 @@
       <c r="BM28" s="17"/>
       <c r="BN28" s="18"/>
       <c r="BO28" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R28="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R28)</f>
         <v>003-001-023</v>
       </c>
       <c r="BP28" s="17"/>
       <c r="BQ28" s="17"/>
       <c r="BR28" s="18"/>
-      <c r="BS28" s="24"/>
+      <c r="BS28" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT28" s="25"/>
-    </row>
-    <row r="29" spans="2:72">
+      <c r="BU28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:73">
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -13530,16 +13804,21 @@
       <c r="BM29" s="17"/>
       <c r="BN29" s="18"/>
       <c r="BO29" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R29="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R29)</f>
         <v>003-001-024</v>
       </c>
       <c r="BP29" s="17"/>
       <c r="BQ29" s="17"/>
       <c r="BR29" s="18"/>
-      <c r="BS29" s="24"/>
+      <c r="BS29" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT29" s="25"/>
-    </row>
-    <row r="30" spans="2:72">
+      <c r="BU29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:73">
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
@@ -13612,16 +13891,21 @@
       <c r="BM30" s="17"/>
       <c r="BN30" s="18"/>
       <c r="BO30" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R30="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R30)</f>
         <v>003-001-025</v>
       </c>
       <c r="BP30" s="17"/>
       <c r="BQ30" s="17"/>
       <c r="BR30" s="18"/>
-      <c r="BS30" s="24"/>
+      <c r="BS30" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT30" s="25"/>
-    </row>
-    <row r="31" spans="2:72">
+      <c r="BU30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:73">
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
@@ -13692,16 +13976,21 @@
       <c r="BM31" s="17"/>
       <c r="BN31" s="18"/>
       <c r="BO31" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R31="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R31)</f>
         <v>003-001-026</v>
       </c>
       <c r="BP31" s="17"/>
       <c r="BQ31" s="17"/>
       <c r="BR31" s="18"/>
-      <c r="BS31" s="24"/>
+      <c r="BS31" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT31" s="25"/>
-    </row>
-    <row r="32" spans="2:72">
+      <c r="BU31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:73">
       <c r="B32" s="16"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
@@ -13772,16 +14061,21 @@
       <c r="BM32" s="17"/>
       <c r="BN32" s="18"/>
       <c r="BO32" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R32="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R32)</f>
         <v>003-001-027</v>
       </c>
       <c r="BP32" s="17"/>
       <c r="BQ32" s="17"/>
       <c r="BR32" s="18"/>
-      <c r="BS32" s="24"/>
+      <c r="BS32" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT32" s="25"/>
-    </row>
-    <row r="33" spans="2:72">
+      <c r="BU32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:73">
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
@@ -13854,22 +14148,25 @@
       <c r="BM33" s="17"/>
       <c r="BN33" s="18"/>
       <c r="BO33" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R33="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R33)</f>
         <v>003-001-028</v>
       </c>
       <c r="BP33" s="17"/>
       <c r="BQ33" s="17"/>
       <c r="BR33" s="18"/>
-      <c r="BS33" s="24"/>
+      <c r="BS33" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT33" s="25"/>
+      <c r="BU33" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" spans="2:72">
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="E34" s="16"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -13882,14 +14179,10 @@
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
-      <c r="R34" s="16" t="s">
-        <v>134</v>
-      </c>
+      <c r="R34" s="16"/>
       <c r="S34" s="17"/>
       <c r="T34" s="18"/>
-      <c r="U34" s="17" t="s">
-        <v>258</v>
-      </c>
+      <c r="U34" s="17"/>
       <c r="V34" s="17"/>
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
@@ -13936,8 +14229,8 @@
       <c r="BM34" s="17"/>
       <c r="BN34" s="18"/>
       <c r="BO34" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>003-001-029</v>
+        <f>IF(R34="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R34)</f>
+        <v/>
       </c>
       <c r="BP34" s="17"/>
       <c r="BQ34" s="17"/>
@@ -13945,12 +14238,12 @@
       <c r="BS34" s="24"/>
       <c r="BT34" s="25"/>
     </row>
-    <row r="35" spans="2:72">
+    <row r="35" spans="2:73">
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
       <c r="E35" s="16" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -13965,11 +14258,13 @@
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S35" s="17"/>
       <c r="T35" s="18"/>
-      <c r="U35" s="17"/>
+      <c r="U35" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="V35" s="17"/>
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
@@ -13982,7 +14277,9 @@
       <c r="AE35" s="17"/>
       <c r="AF35" s="17"/>
       <c r="AG35" s="17"/>
-      <c r="AH35" s="16"/>
+      <c r="AH35" s="16" t="s">
+        <v>259</v>
+      </c>
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
@@ -14016,21 +14313,26 @@
       <c r="BM35" s="17"/>
       <c r="BN35" s="18"/>
       <c r="BO35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>003-001-030</v>
+        <f>IF(R35="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R35)</f>
+        <v>003-001-029</v>
       </c>
       <c r="BP35" s="17"/>
       <c r="BQ35" s="17"/>
       <c r="BR35" s="18"/>
-      <c r="BS35" s="24"/>
+      <c r="BS35" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT35" s="25"/>
-    </row>
-    <row r="36" spans="2:72">
+      <c r="BU35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:73">
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -14045,7 +14347,7 @@
       <c r="P36" s="17"/>
       <c r="Q36" s="17"/>
       <c r="R36" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S36" s="17"/>
       <c r="T36" s="18"/>
@@ -14062,7 +14364,9 @@
       <c r="AE36" s="17"/>
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
-      <c r="AH36" s="16"/>
+      <c r="AH36" s="16" t="s">
+        <v>261</v>
+      </c>
       <c r="AI36" s="17"/>
       <c r="AJ36" s="17"/>
       <c r="AK36" s="17"/>
@@ -14096,21 +14400,26 @@
       <c r="BM36" s="17"/>
       <c r="BN36" s="18"/>
       <c r="BO36" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>003-001-031</v>
+        <f>IF(R36="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R36)</f>
+        <v>003-001-030</v>
       </c>
       <c r="BP36" s="17"/>
       <c r="BQ36" s="17"/>
       <c r="BR36" s="18"/>
-      <c r="BS36" s="24"/>
+      <c r="BS36" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT36" s="25"/>
-    </row>
-    <row r="37" spans="2:72">
+      <c r="BU36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:73">
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
       <c r="E37" s="16" t="s">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -14125,7 +14434,7 @@
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
       <c r="R37" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S37" s="17"/>
       <c r="T37" s="18"/>
@@ -14142,7 +14451,9 @@
       <c r="AE37" s="17"/>
       <c r="AF37" s="17"/>
       <c r="AG37" s="17"/>
-      <c r="AH37" s="16"/>
+      <c r="AH37" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
@@ -14176,20 +14487,27 @@
       <c r="BM37" s="17"/>
       <c r="BN37" s="18"/>
       <c r="BO37" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>003-001-032</v>
+        <f>IF(R37="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R37)</f>
+        <v>003-001-031</v>
       </c>
       <c r="BP37" s="17"/>
       <c r="BQ37" s="17"/>
       <c r="BR37" s="18"/>
-      <c r="BS37" s="24"/>
+      <c r="BS37" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT37" s="25"/>
-    </row>
-    <row r="38" spans="2:72">
+      <c r="BU37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:73">
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="16" t="s">
+        <v>262</v>
+      </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
@@ -14203,7 +14521,7 @@
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
       <c r="R38" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S38" s="17"/>
       <c r="T38" s="18"/>
@@ -14220,7 +14538,9 @@
       <c r="AE38" s="17"/>
       <c r="AF38" s="17"/>
       <c r="AG38" s="17"/>
-      <c r="AH38" s="16"/>
+      <c r="AH38" s="16" t="s">
+        <v>263</v>
+      </c>
       <c r="AI38" s="17"/>
       <c r="AJ38" s="17"/>
       <c r="AK38" s="17"/>
@@ -14254,16 +14574,21 @@
       <c r="BM38" s="17"/>
       <c r="BN38" s="18"/>
       <c r="BO38" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>003-001-033</v>
+        <f>IF(R38="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R38)</f>
+        <v>003-001-032</v>
       </c>
       <c r="BP38" s="17"/>
       <c r="BQ38" s="17"/>
       <c r="BR38" s="18"/>
-      <c r="BS38" s="24"/>
+      <c r="BS38" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT38" s="25"/>
-    </row>
-    <row r="39" spans="2:72">
+      <c r="BU38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:73">
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
@@ -14281,11 +14606,13 @@
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S39" s="17"/>
       <c r="T39" s="18"/>
-      <c r="U39" s="17"/>
+      <c r="U39" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
@@ -14298,7 +14625,9 @@
       <c r="AE39" s="17"/>
       <c r="AF39" s="17"/>
       <c r="AG39" s="17"/>
-      <c r="AH39" s="16"/>
+      <c r="AH39" s="16" t="s">
+        <v>265</v>
+      </c>
       <c r="AI39" s="17"/>
       <c r="AJ39" s="17"/>
       <c r="AK39" s="17"/>
@@ -14332,16 +14661,21 @@
       <c r="BM39" s="17"/>
       <c r="BN39" s="18"/>
       <c r="BO39" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>003-001-034</v>
+        <f>IF(R39="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R39)</f>
+        <v>003-001-033</v>
       </c>
       <c r="BP39" s="17"/>
       <c r="BQ39" s="17"/>
       <c r="BR39" s="18"/>
-      <c r="BS39" s="24"/>
+      <c r="BS39" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT39" s="25"/>
-    </row>
-    <row r="40" spans="2:72">
+      <c r="BU39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:73">
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
@@ -14359,11 +14693,13 @@
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
       <c r="R40" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S40" s="17"/>
       <c r="T40" s="18"/>
-      <c r="U40" s="17"/>
+      <c r="U40" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="V40" s="17"/>
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
@@ -14376,7 +14712,9 @@
       <c r="AE40" s="17"/>
       <c r="AF40" s="17"/>
       <c r="AG40" s="17"/>
-      <c r="AH40" s="16"/>
+      <c r="AH40" s="16" t="s">
+        <v>267</v>
+      </c>
       <c r="AI40" s="17"/>
       <c r="AJ40" s="17"/>
       <c r="AK40" s="17"/>
@@ -14410,20 +14748,25 @@
       <c r="BM40" s="17"/>
       <c r="BN40" s="18"/>
       <c r="BO40" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>003-001-035</v>
+        <f>IF(R40="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R40)</f>
+        <v>003-001-034</v>
       </c>
       <c r="BP40" s="17"/>
       <c r="BQ40" s="17"/>
       <c r="BR40" s="18"/>
-      <c r="BS40" s="24"/>
+      <c r="BS40" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT40" s="25"/>
-    </row>
-    <row r="41" spans="2:72">
+      <c r="BU40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:73">
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="16"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -14437,7 +14780,7 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S41" s="17"/>
       <c r="T41" s="18"/>
@@ -14453,8 +14796,10 @@
       <c r="AD41" s="17"/>
       <c r="AE41" s="17"/>
       <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="16"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="AI41" s="17"/>
       <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
@@ -14488,19 +14833,646 @@
       <c r="BM41" s="17"/>
       <c r="BN41" s="18"/>
       <c r="BO41" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>003-001-036</v>
+        <f>IF(R41="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R41)</f>
+        <v>003-001-035</v>
       </c>
       <c r="BP41" s="17"/>
       <c r="BQ41" s="17"/>
       <c r="BR41" s="18"/>
-      <c r="BS41" s="24"/>
+      <c r="BS41" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BT41" s="25"/>
-    </row>
-    <row r="42" spans="18:18">
+      <c r="BU41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:73">
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
       <c r="R42" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="S42" s="17"/>
+      <c r="T42" s="18"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO42" s="23" t="str">
+        <f>IF(R42="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R42)</f>
+        <v>003-001-036</v>
+      </c>
+      <c r="BP42" s="17"/>
+      <c r="BQ42" s="17"/>
+      <c r="BR42" s="18"/>
+      <c r="BS42" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT42" s="25"/>
+      <c r="BU42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:73">
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="R43" s="16" t="s">
         <v>150</v>
       </c>
+      <c r="S43" s="17"/>
+      <c r="T43" s="18"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BO43" s="23" t="str">
+        <f>IF(R43="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R43)</f>
+        <v>003-001-037</v>
+      </c>
+      <c r="BP43" s="17"/>
+      <c r="BQ43" s="17"/>
+      <c r="BR43" s="18"/>
+      <c r="BS43" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT43" s="25"/>
+      <c r="BU43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:73">
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="R44" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="S44" s="17"/>
+      <c r="T44" s="18"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BO44" s="23" t="str">
+        <f>IF(R44="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R44)</f>
+        <v>003-001-038</v>
+      </c>
+      <c r="BP44" s="17"/>
+      <c r="BQ44" s="17"/>
+      <c r="BR44" s="18"/>
+      <c r="BS44" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT44" s="25"/>
+      <c r="BU44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:73">
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="R45" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="S45" s="17"/>
+      <c r="T45" s="18"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BO45" s="23" t="str">
+        <f>IF(R45="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R45)</f>
+        <v>003-001-039</v>
+      </c>
+      <c r="BP45" s="17"/>
+      <c r="BQ45" s="17"/>
+      <c r="BR45" s="18"/>
+      <c r="BS45" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT45" s="25"/>
+      <c r="BU45" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:73">
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="R46" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="S46" s="17"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BO46" s="23" t="str">
+        <f>IF(R46="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R46)</f>
+        <v>003-001-040</v>
+      </c>
+      <c r="BP46" s="17"/>
+      <c r="BQ46" s="17"/>
+      <c r="BR46" s="18"/>
+      <c r="BS46" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT46" s="25"/>
+      <c r="BU46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:73">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="R47" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="S47" s="17"/>
+      <c r="T47" s="18"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO47" s="23" t="str">
+        <f>IF(R47="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R47)</f>
+        <v>003-001-041</v>
+      </c>
+      <c r="BP47" s="17"/>
+      <c r="BQ47" s="17"/>
+      <c r="BR47" s="18"/>
+      <c r="BS47" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT47" s="25"/>
+      <c r="BU47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:73">
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="R48" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="S48" s="17"/>
+      <c r="T48" s="18"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO48" s="23" t="str">
+        <f>IF(R48="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R48)</f>
+        <v>003-001-042</v>
+      </c>
+      <c r="BP48" s="17"/>
+      <c r="BQ48" s="17"/>
+      <c r="BR48" s="18"/>
+      <c r="BS48" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT48" s="25"/>
+      <c r="BU48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:73">
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="R49" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="S49" s="17"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BO49" s="23" t="str">
+        <f>IF(R49="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R49)</f>
+        <v>003-001-043</v>
+      </c>
+      <c r="BP49" s="17"/>
+      <c r="BQ49" s="17"/>
+      <c r="BR49" s="18"/>
+      <c r="BS49" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT49" s="25"/>
+      <c r="BU49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:73">
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="R50" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="S50" s="17"/>
+      <c r="T50" s="18"/>
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BO50" s="23" t="str">
+        <f>IF(R50="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R50)</f>
+        <v>003-001-044</v>
+      </c>
+      <c r="BP50" s="17"/>
+      <c r="BQ50" s="17"/>
+      <c r="BR50" s="18"/>
+      <c r="BS50" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT50" s="25"/>
+      <c r="BU50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:73">
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="R51" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="S51" s="17"/>
+      <c r="T51" s="18"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BO51" s="23" t="str">
+        <f>IF(R51="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R51)</f>
+        <v>003-001-045</v>
+      </c>
+      <c r="BP51" s="17"/>
+      <c r="BQ51" s="17"/>
+      <c r="BR51" s="18"/>
+      <c r="BS51" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT51" s="25"/>
+      <c r="BU51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:73">
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="R52" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="S52" s="17"/>
+      <c r="T52" s="18"/>
+      <c r="AF52" s="17"/>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO52" s="23" t="str">
+        <f>IF(R52="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R52)</f>
+        <v>003-001-046</v>
+      </c>
+      <c r="BP52" s="17"/>
+      <c r="BQ52" s="17"/>
+      <c r="BR52" s="18"/>
+      <c r="BS52" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT52" s="25"/>
+      <c r="BU52" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:73">
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="R53" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="S53" s="17"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO53" s="23" t="str">
+        <f>IF(R53="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R53)</f>
+        <v>003-001-047</v>
+      </c>
+      <c r="BP53" s="17"/>
+      <c r="BQ53" s="17"/>
+      <c r="BR53" s="18"/>
+      <c r="BS53" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT53" s="25"/>
+      <c r="BU53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:73">
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="R54" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="S54" s="17"/>
+      <c r="T54" s="18"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="18"/>
+      <c r="AH54" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO54" s="23" t="str">
+        <f>IF(R54="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R54)</f>
+        <v>003-001-048</v>
+      </c>
+      <c r="BP54" s="17"/>
+      <c r="BQ54" s="17"/>
+      <c r="BR54" s="18"/>
+      <c r="BS54" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT54" s="25"/>
+      <c r="BU54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:73">
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="R55" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="S55" s="17"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BO55" s="23" t="str">
+        <f>IF(R55="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R55)</f>
+        <v>003-001-049</v>
+      </c>
+      <c r="BP55" s="17"/>
+      <c r="BQ55" s="17"/>
+      <c r="BR55" s="18"/>
+      <c r="BS55" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT55" s="25"/>
+      <c r="BU55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:73">
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="R56" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="S56" s="17"/>
+      <c r="T56" s="18"/>
+      <c r="AF56" s="17"/>
+      <c r="AG56" s="18"/>
+      <c r="AH56" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO56" s="23" t="str">
+        <f>IF(R56="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R56)</f>
+        <v>003-001-050</v>
+      </c>
+      <c r="BP56" s="17"/>
+      <c r="BQ56" s="17"/>
+      <c r="BR56" s="18"/>
+      <c r="BS56" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT56" s="25"/>
+      <c r="BU56" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="2:73">
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="R57" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="S57" s="17"/>
+      <c r="T57" s="18"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO57" s="23" t="str">
+        <f>IF(R57="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R57)</f>
+        <v>003-001-051</v>
+      </c>
+      <c r="BP57" s="17"/>
+      <c r="BQ57" s="17"/>
+      <c r="BR57" s="18"/>
+      <c r="BS57" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT57" s="25"/>
+      <c r="BU57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:73">
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="R58" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="S58" s="17"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BO58" s="23" t="str">
+        <f>IF(R58="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R58)</f>
+        <v>003-001-052</v>
+      </c>
+      <c r="BP58" s="17"/>
+      <c r="BQ58" s="17"/>
+      <c r="BR58" s="18"/>
+      <c r="BS58" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT58" s="25"/>
+      <c r="BU58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="2:73">
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="R59" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="S59" s="17"/>
+      <c r="T59" s="18"/>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="18"/>
+      <c r="BO59" s="23" t="str">
+        <f>IF(R59="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R59)</f>
+        <v>003-001-053</v>
+      </c>
+      <c r="BP59" s="17"/>
+      <c r="BQ59" s="17"/>
+      <c r="BR59" s="18"/>
+      <c r="BS59" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT59" s="25"/>
+      <c r="BU59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:73">
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="R60" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="S60" s="17"/>
+      <c r="T60" s="18"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="18"/>
+      <c r="BO60" s="23" t="str">
+        <f>IF(R60="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R60)</f>
+        <v>003-001-054</v>
+      </c>
+      <c r="BP60" s="17"/>
+      <c r="BQ60" s="17"/>
+      <c r="BR60" s="18"/>
+      <c r="BS60" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT60" s="25"/>
+      <c r="BU60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="2:73">
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
+      <c r="R61" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="S61" s="17"/>
+      <c r="T61" s="18"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="18"/>
+      <c r="BO61" s="23" t="str">
+        <f>IF(R61="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R61)</f>
+        <v>003-001-055</v>
+      </c>
+      <c r="BP61" s="17"/>
+      <c r="BQ61" s="17"/>
+      <c r="BR61" s="18"/>
+      <c r="BS61" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT61" s="25"/>
+      <c r="BU61" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="2:73">
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="R62" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="S62" s="17"/>
+      <c r="T62" s="18"/>
+      <c r="AF62" s="17"/>
+      <c r="AG62" s="18"/>
+      <c r="BO62" s="23" t="str">
+        <f>IF(R62="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R62)</f>
+        <v>003-001-056</v>
+      </c>
+      <c r="BP62" s="17"/>
+      <c r="BQ62" s="17"/>
+      <c r="BR62" s="18"/>
+      <c r="BS62" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT62" s="25"/>
+      <c r="BU62" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="2:72">
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="18"/>
+      <c r="AF63" s="17"/>
+      <c r="AG63" s="18"/>
+      <c r="BO63" s="16"/>
+      <c r="BP63" s="17"/>
+      <c r="BQ63" s="17"/>
+      <c r="BR63" s="18"/>
+      <c r="BT63" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
